--- a/CATERING DULCE.xlsx
+++ b/CATERING DULCE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>MARCAR CON  X</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>PRECIO</t>
-  </si>
-  <si>
-    <t>DULCE</t>
   </si>
 </sst>
 </file>
@@ -496,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
       <selection activeCell="G30" sqref="G30:G50"/>
     </sheetView>
   </sheetViews>
@@ -514,20 +511,23 @@
         <v>44</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
+      <c r="E4" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>44</v>
       </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE("(NULL, '", E7," ', ", " '",$E$4,"',"," '",C7,"'",", '1'),")</f>
-        <v>(NULL, 'Facturas artesanales de manteca y grasa ',  'DULCE', '44', '1'),</v>
+        <f>CONCATENATE("(NULL, '",E7,"', ","'8'",",","'1'),")</f>
+        <v>(NULL, 'Facturas artesanales de manteca y grasa', '8','1'),</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -535,12 +535,15 @@
         <f>C7+5</f>
         <v>49</v>
       </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ref="G8:G27" si="0">CONCATENATE("(NULL, '", E8," ', ", " '",$E$4,"',"," '",C8,"'",", '1'),")</f>
-        <v>(NULL, 'Mini facturas ',  'DULCE', '49', '1'),</v>
+        <f t="shared" ref="G8:G30" si="0">CONCATENATE("(NULL, '",E8,"', ","'8'",",","'1'),")</f>
+        <v>(NULL, 'Mini facturas', '8','1'),</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -548,12 +551,15 @@
         <f t="shared" ref="C9:C50" si="1">C8+5</f>
         <v>54</v>
       </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Facturas porteñas ',  'DULCE', '54', '1'),</v>
+        <v>(NULL, 'Facturas porteñas', '8','1'),</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,12 +567,15 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Arrolladitos de dulce de leche ',  'DULCE', '59', '1'),</v>
+        <v>(NULL, 'Arrolladitos de dulce de leche', '8','1'),</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -574,12 +583,15 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Pasta frola ',  'DULCE', '64', '1'),</v>
+        <v>(NULL, 'Pasta frola', '8','1'),</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -587,12 +599,15 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Piquitos (picos de dulce de leche cubiertos con chocolate / individuales y tarteletas) ',  'DULCE', '69', '1'),</v>
+        <v>(NULL, 'Piquitos (picos de dulce de leche cubiertos con chocolate / individuales y tarteletas)', '8','1'),</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,12 +615,15 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Florentinos ',  'DULCE', '74', '1'),</v>
+        <v>(NULL, 'Florentinos', '8','1'),</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,12 +631,15 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Lenguas de gato ',  'DULCE', '79', '1'),</v>
+        <v>(NULL, 'Lenguas de gato', '8','1'),</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,12 +647,15 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Mini scons ',  'DULCE', '84', '1'),</v>
+        <v>(NULL, 'Mini scons', '8','1'),</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,12 +663,15 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Mini polvorones ',  'DULCE', '89', '1'),</v>
+        <v>(NULL, 'Mini polvorones', '8','1'),</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
@@ -652,12 +679,15 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Mini palmeritas ',  'DULCE', '94', '1'),</v>
+        <v>(NULL, 'Mini palmeritas', '8','1'),</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -665,12 +695,15 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Masas finas ',  'DULCE', '99', '1'),</v>
+        <v>(NULL, 'Masas finas', '8','1'),</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
@@ -678,12 +711,15 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Masas secas ',  'DULCE', '104', '1'),</v>
+        <v>(NULL, 'Masas secas', '8','1'),</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -691,12 +727,15 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Tartas dulces (frutilla / durazno / kiwi / banana / manzana) ',  'DULCE', '109', '1'),</v>
+        <v>(NULL, 'Tartas dulces (frutilla / durazno / kiwi / banana / manzana)', '8','1'),</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
@@ -704,12 +743,15 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Amerettis ',  'DULCE', '114', '1'),</v>
+        <v>(NULL, 'Amerettis', '8','1'),</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
@@ -717,12 +759,15 @@
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Mini rogelitos ',  'DULCE', '119', '1'),</v>
+        <v>(NULL, 'Mini rogelitos', '8','1'),</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
@@ -730,12 +775,15 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Mini brownies ',  'DULCE', '124', '1'),</v>
+        <v>(NULL, 'Mini brownies', '8','1'),</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
@@ -743,12 +791,15 @@
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Linea alfajores mini en todas las variedades ',  'DULCE', '129', '1'),</v>
+        <v>(NULL, 'Linea alfajores mini en todas las variedades', '8','1'),</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
@@ -756,12 +807,15 @@
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
       <c r="E25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Mini colaciones ',  'DULCE', '134', '1'),</v>
+        <v>(NULL, 'Mini colaciones', '8','1'),</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -769,12 +823,15 @@
         <f>C50+5</f>
         <v>115</v>
       </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
       <c r="E26" t="s">
         <v>42</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Pan dulce ',  'DULCE', '115', '1'),</v>
+        <v>(NULL, 'Pan dulce', '8','1'),</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
@@ -782,12 +839,15 @@
         <f>C26+5</f>
         <v>120</v>
       </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>(NULL, 'Stolen ',  'DULCE', '120', '1'),</v>
+        <v>(NULL, 'Stolen', '8','1'),</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
@@ -797,10 +857,6 @@
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G29" t="str">
-        <f>CONCATENATE("(NULL, '", E29," ', ", " '",$E$29,"',"," '",C29,"'",", '1'),")</f>
-        <v>(NULL, 'TORTAS ',  'TORTAS', '5', '1'),</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -808,12 +864,15 @@
         <f>C29+5</f>
         <v>10</v>
       </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
       <c r="E30" t="s">
         <v>21</v>
       </c>
       <c r="G30" t="str">
-        <f>CONCATENATE("(NULL, '", E30," ', ", " '",$E$29,"',"," '",C30,"'",", '1'),")</f>
-        <v>(NULL, 'Lemon pie ',  'TORTAS', '10', '1'),</v>
+        <f>CONCATENATE("(NULL, '",E30,"', ","'28'",",","'1'),")</f>
+        <v>(NULL, 'Lemon pie', '28','1'),</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
@@ -821,12 +880,15 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
       <c r="E31" t="s">
         <v>22</v>
       </c>
       <c r="G31" t="str">
-        <f>CONCATENATE("(NULL, '", E31," ', ", " '",$E$29,"',"," '",C31,"'",", '1'),")</f>
-        <v>(NULL, 'Strudell ',  'TORTAS', '15', '1'),</v>
+        <f t="shared" ref="G31:G50" si="2">CONCATENATE("(NULL, '",E31,"', ","'28'",",","'1'),")</f>
+        <v>(NULL, 'Strudell', '28','1'),</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
@@ -834,12 +896,15 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
       <c r="E32" t="s">
         <v>23</v>
       </c>
       <c r="G32" t="str">
-        <f>CONCATENATE("(NULL, '", E32," ', ", " '",$E$29,"',"," '",C32,"'",", '1'),")</f>
-        <v>(NULL, 'Milhojas ',  'TORTAS', '20', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Milhojas', '28','1'),</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
@@ -847,12 +912,15 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="D33">
+        <v>28</v>
+      </c>
       <c r="E33" t="s">
         <v>24</v>
       </c>
       <c r="G33" t="str">
-        <f>CONCATENATE("(NULL, '", E33," ', ", " '",$E$29,"',"," '",C33,"'",", '1'),")</f>
-        <v>(NULL, 'Rogel ',  'TORTAS', '25', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Rogel', '28','1'),</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
@@ -860,12 +928,15 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
       <c r="E34" t="s">
         <v>25</v>
       </c>
       <c r="G34" t="str">
-        <f>CONCATENATE("(NULL, '", E34," ', ", " '",$E$29,"',"," '",C34,"'",", '1'),")</f>
-        <v>(NULL, 'Imperial ruso ',  'TORTAS', '30', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Imperial ruso', '28','1'),</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
@@ -873,12 +944,15 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
       <c r="E35" t="s">
         <v>26</v>
       </c>
       <c r="G35" t="str">
-        <f>CONCATENATE("(NULL, '", E35," ', ", " '",$E$29,"',"," '",C35,"'",", '1'),")</f>
-        <v>(NULL, 'Isla flotante con crema sambayon ',  'TORTAS', '35', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Isla flotante con crema sambayon', '28','1'),</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
@@ -886,12 +960,15 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
       <c r="E36" t="s">
         <v>27</v>
       </c>
       <c r="G36" t="str">
-        <f>CONCATENATE("(NULL, '", E36," ', ", " '",$E$29,"',"," '",C36,"'",", '1'),")</f>
-        <v>(NULL, 'Merengues dulce de leche y frutillas, crema y merengue ',  'TORTAS', '40', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Merengues dulce de leche y frutillas, crema y merengue', '28','1'),</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
@@ -899,12 +976,15 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
+      <c r="D37">
+        <v>28</v>
+      </c>
       <c r="E37" t="s">
         <v>28</v>
       </c>
       <c r="G37" t="str">
-        <f>CONCATENATE("(NULL, '", E37," ', ", " '",$E$29,"',"," '",C37,"'",", '1'),")</f>
-        <v>(NULL, 'Selva negra ',  'TORTAS', '45', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Selva negra', '28','1'),</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
@@ -912,12 +992,15 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
       <c r="E38" t="s">
         <v>29</v>
       </c>
       <c r="G38" t="str">
-        <f>CONCATENATE("(NULL, '", E38," ', ", " '",$E$29,"',"," '",C38,"'",", '1'),")</f>
-        <v>(NULL, 'Morena (bizcochuelo de chocolate y dulce de leche) ',  'TORTAS', '50', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Morena (bizcochuelo de chocolate y dulce de leche)', '28','1'),</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
@@ -925,12 +1008,15 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
       <c r="E39" t="s">
         <v>30</v>
       </c>
       <c r="G39" t="str">
-        <f>CONCATENATE("(NULL, '", E39," ', ", " '",$E$29,"',"," '",C39,"'",", '1'),")</f>
-        <v>(NULL, 'Manzana con canela ',  'TORTAS', '55', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Manzana con canela', '28','1'),</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
@@ -938,12 +1024,15 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
+      <c r="D40">
+        <v>28</v>
+      </c>
       <c r="E40" t="s">
         <v>31</v>
       </c>
       <c r="G40" t="str">
-        <f>CONCATENATE("(NULL, '", E40," ', ", " '",$E$29,"',"," '",C40,"'",", '1'),")</f>
-        <v>(NULL, 'Ricota ',  'TORTAS', '60', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Ricota', '28','1'),</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
@@ -951,12 +1040,15 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
       <c r="E41" t="s">
         <v>32</v>
       </c>
       <c r="G41" t="str">
-        <f>CONCATENATE("(NULL, '", E41," ', ", " '",$E$29,"',"," '",C41,"'",", '1'),")</f>
-        <v>(NULL, 'Tropical (bizcochuelo de vainilla relleno con crema y dulce de leche cubierta de 4 variedades de frutas) ',  'TORTAS', '65', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Tropical (bizcochuelo de vainilla relleno con crema y dulce de leche cubierta de 4 variedades de frutas)', '28','1'),</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
@@ -964,12 +1056,15 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
+      <c r="D42">
+        <v>28</v>
+      </c>
       <c r="E42" t="s">
         <v>33</v>
       </c>
       <c r="G42" t="str">
-        <f>CONCATENATE("(NULL, '", E42," ', ", " '",$E$29,"',"," '",C42,"'",", '1'),")</f>
-        <v>(NULL, 'Mouse de chocolate ',  'TORTAS', '70', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Mouse de chocolate', '28','1'),</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
@@ -977,12 +1072,15 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
       <c r="E43" t="s">
         <v>34</v>
       </c>
       <c r="G43" t="str">
-        <f>CONCATENATE("(NULL, '", E43," ', ", " '",$E$29,"',"," '",C43,"'",", '1'),")</f>
-        <v>(NULL, 'Mouse de frutilla ',  'TORTAS', '75', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Mouse de frutilla', '28','1'),</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
@@ -990,12 +1088,15 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
       <c r="E44" t="s">
         <v>35</v>
       </c>
       <c r="G44" t="str">
-        <f>CONCATENATE("(NULL, '", E44," ', ", " '",$E$29,"',"," '",C44,"'",", '1'),")</f>
-        <v>(NULL, 'Cup cakes ',  'TORTAS', '80', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Cup cakes', '28','1'),</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
@@ -1003,12 +1104,15 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
       <c r="E45" t="s">
         <v>36</v>
       </c>
       <c r="G45" t="str">
-        <f>CONCATENATE("(NULL, '", E45," ', ", " '",$E$29,"',"," '",C45,"'",", '1'),")</f>
-        <v>(NULL, 'Torta de coco ',  'TORTAS', '85', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Torta de coco', '28','1'),</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
@@ -1016,12 +1120,15 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
+      <c r="D46">
+        <v>28</v>
+      </c>
       <c r="E46" t="s">
         <v>37</v>
       </c>
       <c r="G46" t="str">
-        <f>CONCATENATE("(NULL, '", E46," ', ", " '",$E$29,"',"," '",C46,"'",", '1'),")</f>
-        <v>(NULL, 'Torta molino ',  'TORTAS', '90', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Torta molino', '28','1'),</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
@@ -1029,12 +1136,15 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
       <c r="G47" t="str">
-        <f>CONCATENATE("(NULL, '", E47," ', ", " '",$E$29,"',"," '",C47,"'",", '1'),")</f>
-        <v>(NULL, 'Torta ricota con frutilla ',  'TORTAS', '95', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Torta ricota con frutilla', '28','1'),</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
@@ -1042,12 +1152,15 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="D48">
+        <v>28</v>
+      </c>
       <c r="E48" t="s">
         <v>39</v>
       </c>
       <c r="G48" t="str">
-        <f>CONCATENATE("(NULL, '", E48," ', ", " '",$E$29,"',"," '",C48,"'",", '1'),")</f>
-        <v>(NULL, 'Torta de brownies ',  'TORTAS', '100', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Torta de brownies', '28','1'),</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
@@ -1055,12 +1168,15 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="G49" t="str">
-        <f>CONCATENATE("(NULL, '", E49," ', ", " '",$E$29,"',"," '",C49,"'",", '1'),")</f>
-        <v>(NULL, 'Linea de mini masas ',  'TORTAS', '105', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Linea de mini masas', '28','1'),</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
@@ -1068,12 +1184,15 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
       <c r="E50" t="s">
         <v>41</v>
       </c>
       <c r="G50" t="str">
-        <f>CONCATENATE("(NULL, '", E50," ', ", " '",$E$29,"',"," '",C50,"'",", '1'),")</f>
-        <v>(NULL, 'Moussetas ',  'TORTAS', '110', '1'),</v>
+        <f t="shared" si="2"/>
+        <v>(NULL, 'Moussetas', '28','1'),</v>
       </c>
     </row>
   </sheetData>

--- a/CATERING DULCE.xlsx
+++ b/CATERING DULCE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
   <si>
     <t>Facturas artesanales de manteca y grasa</t>
   </si>
@@ -35,54 +35,21 @@
     <t>Facturas porteñas</t>
   </si>
   <si>
-    <t>Arrolladitos de dulce de leche</t>
-  </si>
-  <si>
     <t>Pasta frola</t>
   </si>
   <si>
     <t>Piquitos (picos de dulce de leche cubiertos con chocolate / individuales y tarteletas)</t>
   </si>
   <si>
-    <t>Florentinos</t>
-  </si>
-  <si>
-    <t>Lenguas de gato</t>
-  </si>
-  <si>
     <t>Mini scons</t>
   </si>
   <si>
     <t>Mini polvorones</t>
   </si>
   <si>
-    <t>Mini palmeritas</t>
-  </si>
-  <si>
-    <t>Masas finas</t>
-  </si>
-  <si>
-    <t>Masas secas</t>
-  </si>
-  <si>
     <t>Tartas dulces (frutilla / durazno / kiwi / banana / manzana)</t>
   </si>
   <si>
-    <t>Amerettis</t>
-  </si>
-  <si>
-    <t>Mini rogelitos</t>
-  </si>
-  <si>
-    <t>Mini brownies</t>
-  </si>
-  <si>
-    <t>Linea alfajores mini en todas las variedades</t>
-  </si>
-  <si>
-    <t>Mini colaciones</t>
-  </si>
-  <si>
     <t>TORTAS</t>
   </si>
   <si>
@@ -149,12 +116,6 @@
     <t>Moussetas</t>
   </si>
   <si>
-    <t>Pan dulce</t>
-  </si>
-  <si>
-    <t>Stolen</t>
-  </si>
-  <si>
     <t>PRECIO</t>
   </si>
   <si>
@@ -180,6 +141,60 @@
   </si>
   <si>
     <t>TABLA PRECIO</t>
+  </si>
+  <si>
+    <t>Arrollado de dulce de leche</t>
+  </si>
+  <si>
+    <t>Florentinos (1 kilo)</t>
+  </si>
+  <si>
+    <t>Lenguas de gato (1 kilo)</t>
+  </si>
+  <si>
+    <t>Palmeritas (1 kilo)</t>
+  </si>
+  <si>
+    <t>Masas finas (1 kilo)</t>
+  </si>
+  <si>
+    <t>Masas secas (1 kilo)</t>
+  </si>
+  <si>
+    <t>Amarettis (1 kilo)</t>
+  </si>
+  <si>
+    <t>Mini rogelitos (1 kilo)</t>
+  </si>
+  <si>
+    <t>Mini brownies (1 kilo)</t>
+  </si>
+  <si>
+    <t>Linea alfajores mini en todas las variedades (1 kilo)</t>
+  </si>
+  <si>
+    <t>Mini colaciones (1 kilo)</t>
+  </si>
+  <si>
+    <t>Pan dulce (1 kilo)</t>
+  </si>
+  <si>
+    <t>Stolen (1 kilo)</t>
+  </si>
+  <si>
+    <t>Bomba</t>
+  </si>
+  <si>
+    <t>Molino blanco</t>
+  </si>
+  <si>
+    <t>Africana</t>
+  </si>
+  <si>
+    <t>Reja de chocolate (negra / blanca)</t>
+  </si>
+  <si>
+    <t>A PEDIDO DECORADO (1 kilo)</t>
   </si>
 </sst>
 </file>
@@ -529,47 +544,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O50"/>
+  <dimension ref="A4:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="N50" sqref="N7:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -580,14 +596,14 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H6" t="str">
         <f>CONCATENATE("(",A6,", '",E6,"'),")</f>
         <v>(30, 'DULCE'),</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -598,24 +614,24 @@
         <v>66</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE("(",B7,", '",E7,"', ",A7,", 2),")</f>
         <v>(66, 'Facturas artesanales de manteca y grasa', 30, 2),</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N7" t="str">
         <f>CONCATENATE("(",C7,", ",B7,"),")</f>
-        <v>(1, 66),</v>
+        <v>(12, 66),</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -627,24 +643,24 @@
         <v>67</v>
       </c>
       <c r="C8" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ref="K8:K50" si="0">CONCATENATE("(",B8,", '",E8,"', ",A8,", 2),")</f>
         <v>(67, 'Mini facturas', 30, 2),</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" ref="N8:N50" si="1">CONCATENATE("(",C8,", ",B8,"),")</f>
-        <v>(2, 67),</v>
+        <v>(12, 67),</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -656,24 +672,24 @@
         <v>68</v>
       </c>
       <c r="C9" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>(68, 'Facturas porteñas', 30, 2),</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v>(3, 68),</v>
+        <v>(12, 68),</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -685,24 +701,24 @@
         <v>69</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>(69, 'Arrolladitos de dulce de leche', 30, 2),</v>
+        <v>(69, 'Arrollado de dulce de leche', 30, 2),</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="1"/>
-        <v>(4, 69),</v>
+        <v>(180, 69),</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -714,24 +730,24 @@
         <v>70</v>
       </c>
       <c r="C11" s="4">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>(70, 'Pasta frola', 30, 2),</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="1"/>
-        <v>(5, 70),</v>
+        <v>(240, 70),</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -743,24 +759,24 @@
         <v>71</v>
       </c>
       <c r="C12" s="4">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>(71, 'Piquitos (picos de dulce de leche cubiertos con chocolate / individuales y tarteletas)', 30, 2),</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="1"/>
-        <v>(6, 71),</v>
+        <v>(35, 71),</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -772,24 +788,24 @@
         <v>72</v>
       </c>
       <c r="C13" s="4">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
-        <v>(72, 'Florentinos', 30, 2),</v>
+        <v>(72, 'Florentinos (1 kilo)', 30, 2),</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
-        <v>(7, 72),</v>
+        <v>(500, 72),</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -801,24 +817,24 @@
         <v>73</v>
       </c>
       <c r="C14" s="4">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
-        <v>(73, 'Lenguas de gato', 30, 2),</v>
+        <v>(73, 'Lenguas de gato (1 kilo)', 30, 2),</v>
       </c>
       <c r="L14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="1"/>
-        <v>(8, 73),</v>
+        <v>(500, 73),</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -830,24 +846,24 @@
         <v>74</v>
       </c>
       <c r="C15" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>(74, 'Mini scons', 30, 2),</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
-        <v>(9, 74),</v>
+        <v>(12, 74),</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -859,24 +875,24 @@
         <v>75</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>(75, 'Mini polvorones', 30, 2),</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="1"/>
-        <v>(10, 75),</v>
+        <v>(12, 75),</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -888,24 +904,24 @@
         <v>76</v>
       </c>
       <c r="C17" s="4">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
-        <v>(76, 'Mini palmeritas', 30, 2),</v>
+        <v>(76, 'Palmeritas (1 kilo)', 30, 2),</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="1"/>
-        <v>(11, 76),</v>
+        <v>(320, 76),</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -917,24 +933,24 @@
         <v>77</v>
       </c>
       <c r="C18" s="4">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
-        <v>(77, 'Masas finas', 30, 2),</v>
+        <v>(77, 'Masas finas (1 kilo)', 30, 2),</v>
       </c>
       <c r="L18" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
-        <v>(12, 77),</v>
+        <v>(500, 77),</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -946,24 +962,24 @@
         <v>78</v>
       </c>
       <c r="C19" s="4">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
-        <v>(78, 'Masas secas', 30, 2),</v>
+        <v>(78, 'Masas secas (1 kilo)', 30, 2),</v>
       </c>
       <c r="L19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
-        <v>(13, 78),</v>
+        <v>(500, 78),</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -975,24 +991,24 @@
         <v>79</v>
       </c>
       <c r="C20" s="4">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>(79, 'Tartas dulces (frutilla / durazno / kiwi / banana / manzana)', 30, 2),</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="1"/>
-        <v>(14, 79),</v>
+        <v>(350, 79),</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1004,24 +1020,24 @@
         <v>80</v>
       </c>
       <c r="C21" s="4">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
-        <v>(80, 'Amerettis', 30, 2),</v>
+        <v>(80, 'Amarettis (1 kilo)', 30, 2),</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
-        <v>(15, 80),</v>
+        <v>(500, 80),</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1033,24 +1049,24 @@
         <v>81</v>
       </c>
       <c r="C22" s="4">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
-        <v>(81, 'Mini rogelitos', 30, 2),</v>
+        <v>(81, 'Mini rogelitos (1 kilo)', 30, 2),</v>
       </c>
       <c r="L22" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="1"/>
-        <v>(16, 81),</v>
+        <v>(500, 81),</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1062,24 +1078,24 @@
         <v>82</v>
       </c>
       <c r="C23" s="4">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
-        <v>(82, 'Mini brownies', 30, 2),</v>
+        <v>(82, 'Mini brownies (1 kilo)', 30, 2),</v>
       </c>
       <c r="L23" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
-        <v>(17, 82),</v>
+        <v>(500, 82),</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1091,24 +1107,24 @@
         <v>83</v>
       </c>
       <c r="C24" s="4">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
-        <v>(83, 'Linea alfajores mini en todas las variedades', 30, 2),</v>
+        <v>(83, 'Linea alfajores mini en todas las variedades (1 kilo)', 30, 2),</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="1"/>
-        <v>(18, 83),</v>
+        <v>(500, 83),</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1120,24 +1136,24 @@
         <v>84</v>
       </c>
       <c r="C25" s="4">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
-        <v>(84, 'Mini colaciones', 30, 2),</v>
+        <v>(84, 'Mini colaciones (1 kilo)', 30, 2),</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="1"/>
-        <v>(19, 84),</v>
+        <v>(500, 84),</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1149,24 +1165,24 @@
         <v>85</v>
       </c>
       <c r="C26" s="4">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
-        <v>(85, 'Pan dulce', 30, 2),</v>
+        <v>(85, 'Pan dulce (1 kilo)', 30, 2),</v>
       </c>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="1"/>
-        <v>(20, 85),</v>
+        <v>(450, 85),</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1178,53 +1194,47 @@
         <v>86</v>
       </c>
       <c r="C27" s="4">
-        <v>21</v>
+        <v>450</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
-        <v>(86, 'Stolen', 30, 2),</v>
+        <v>(86, 'Stolen (1 kilo)', 30, 2),</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
-        <v>(21, 86),</v>
+        <v>(450, 86),</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="4">
-        <v>22</v>
-      </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
-      <c r="C29" s="4">
-        <v>23</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H29" t="str">
         <f>CONCATENATE("(",A29,", '",E29,"'),")</f>
         <v>(31, 'TORTAS'),</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1235,24 +1245,24 @@
         <v>87</v>
       </c>
       <c r="C30" s="4">
-        <v>24</v>
+        <v>380</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>(87, 'Lemon pie', 31, 2),</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
-        <v>(24, 87),</v>
+        <v>(380, 87),</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1264,24 +1274,24 @@
         <v>88</v>
       </c>
       <c r="C31" s="4">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>(88, 'Strudell', 31, 2),</v>
       </c>
       <c r="L31" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
-        <v>(25, 88),</v>
+        <v>(190, 88),</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1293,24 +1303,24 @@
         <v>89</v>
       </c>
       <c r="C32" s="4">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>(89, 'Milhojas', 31, 2),</v>
       </c>
       <c r="L32" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="1"/>
-        <v>(26, 89),</v>
+        <v>(360, 89),</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -1322,24 +1332,24 @@
         <v>90</v>
       </c>
       <c r="C33" s="4">
-        <v>27</v>
+        <v>380</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>(90, 'Rogel', 31, 2),</v>
       </c>
       <c r="L33" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="1"/>
-        <v>(27, 90),</v>
+        <v>(380, 90),</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -1351,24 +1361,24 @@
         <v>91</v>
       </c>
       <c r="C34" s="4">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>(91, 'Imperial ruso', 31, 2),</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="1"/>
-        <v>(28, 91),</v>
+        <v>(240, 91),</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -1380,24 +1390,24 @@
         <v>92</v>
       </c>
       <c r="C35" s="4">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>(92, 'Isla flotante con crema sambayon', 31, 2),</v>
       </c>
       <c r="L35" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="1"/>
-        <v>(29, 92),</v>
+        <v>(400, 92),</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -1409,24 +1419,24 @@
         <v>93</v>
       </c>
       <c r="C36" s="4">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>(93, 'Merengues dulce de leche y frutillas, crema y merengue', 31, 2),</v>
       </c>
       <c r="L36" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="1"/>
-        <v>(30, 93),</v>
+        <v>(380, 93),</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -1438,24 +1448,24 @@
         <v>94</v>
       </c>
       <c r="C37" s="4">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>(94, 'Selva negra', 31, 2),</v>
       </c>
       <c r="L37" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="1"/>
-        <v>(31, 94),</v>
+        <v>(380, 94),</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -1467,24 +1477,24 @@
         <v>95</v>
       </c>
       <c r="C38" s="4">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>(95, 'Morena (bizcochuelo de chocolate y dulce de leche)', 31, 2),</v>
       </c>
       <c r="L38" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="1"/>
-        <v>(32, 95),</v>
+        <v>(380, 95),</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -1496,24 +1506,24 @@
         <v>96</v>
       </c>
       <c r="C39" s="4">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>(96, 'Manzana con canela', 31, 2),</v>
       </c>
       <c r="L39" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="1"/>
-        <v>(33, 96),</v>
+        <v>(300, 96),</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -1525,24 +1535,24 @@
         <v>97</v>
       </c>
       <c r="C40" s="4">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>
         <v>(97, 'Ricota', 31, 2),</v>
       </c>
       <c r="L40" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="1"/>
-        <v>(34, 97),</v>
+        <v>(300, 97),</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -1554,24 +1564,24 @@
         <v>98</v>
       </c>
       <c r="C41" s="4">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
         <v>(98, 'Tropical (bizcochuelo de vainilla relleno con crema y dulce de leche cubierta de 4 variedades de frutas)', 31, 2),</v>
       </c>
       <c r="L41" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="1"/>
-        <v>(35, 98),</v>
+        <v>(380, 98),</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -1583,24 +1593,24 @@
         <v>99</v>
       </c>
       <c r="C42" s="4">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="0"/>
         <v>(99, 'Mouse de chocolate', 31, 2),</v>
       </c>
       <c r="L42" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="1"/>
-        <v>(36, 99),</v>
+        <v>(380, 99),</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -1612,24 +1622,24 @@
         <v>100</v>
       </c>
       <c r="C43" s="4">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
         <v>(100, 'Mouse de frutilla', 31, 2),</v>
       </c>
       <c r="L43" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="1"/>
-        <v>(37, 100),</v>
+        <v>(380, 100),</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -1641,24 +1651,24 @@
         <v>101</v>
       </c>
       <c r="C44" s="4">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="0"/>
         <v>(101, 'Cup cakes', 31, 2),</v>
       </c>
       <c r="L44" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="1"/>
-        <v>(38, 101),</v>
+        <v>(55, 101),</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -1670,24 +1680,24 @@
         <v>102</v>
       </c>
       <c r="C45" s="4">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="0"/>
         <v>(102, 'Torta de coco', 31, 2),</v>
       </c>
       <c r="L45" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="1"/>
-        <v>(39, 102),</v>
+        <v>(300, 102),</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -1699,24 +1709,24 @@
         <v>103</v>
       </c>
       <c r="C46" s="4">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
         <v>(103, 'Torta molino', 31, 2),</v>
       </c>
       <c r="L46" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="1"/>
-        <v>(40, 103),</v>
+        <v>(380, 103),</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -1728,24 +1738,24 @@
         <v>104</v>
       </c>
       <c r="C47" s="4">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
         <v>(104, 'Torta ricota con frutilla', 31, 2),</v>
       </c>
       <c r="L47" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="1"/>
-        <v>(41, 104),</v>
+        <v>(380, 104),</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -1757,24 +1767,24 @@
         <v>105</v>
       </c>
       <c r="C48" s="4">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
         <v>(105, 'Torta de brownies', 31, 2),</v>
       </c>
       <c r="L48" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="1"/>
-        <v>(42, 105),</v>
+        <v>(400, 105),</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -1786,24 +1796,24 @@
         <v>106</v>
       </c>
       <c r="C49" s="4">
-        <v>43</v>
+        <v>400</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
         <v>(106, 'Linea de mini masas', 31, 2),</v>
       </c>
       <c r="L49" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="1"/>
-        <v>(43, 106),</v>
+        <v>(400, 106),</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -1815,24 +1825,64 @@
         <v>107</v>
       </c>
       <c r="C50" s="4">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
         <v>(107, 'Moussetas', 31, 2),</v>
       </c>
       <c r="L50" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="1"/>
-        <v>(44, 107),</v>
+        <v>(400, 107),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C51" s="4">
+        <v>300</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
+        <v>380</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="4">
+        <v>380</v>
+      </c>
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="4">
+        <v>380</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C55" s="4">
+        <v>500</v>
+      </c>
+      <c r="E55" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
